--- a/fms_core/example_data/xlsx/Extraction_v0.4_test2.xlsx
+++ b/fms_core/example_data/xlsx/Extraction_v0.4_test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cousi\Documents\FreezeMan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jleblond/c3g/fms/fms_core/example_data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31269FA7-229E-477F-A7DD-2249FE5C65EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D7DD0-F23B-D04B-B876-8C01447B6F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractionTemplate" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="426">
   <si>
     <t>Nucleic Acid Extration template</t>
   </si>
@@ -1300,12 +1300,6 @@
     <t>384-well plate</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Wrong declare volume</t>
-  </si>
-  <si>
     <t>SampleTestTube001</t>
   </si>
   <si>
@@ -1315,149 +1309,17 @@
     <t>SampleTestRack_003</t>
   </si>
   <si>
-    <t>SampleTestTube002</t>
-  </si>
-  <si>
-    <t>DNASampleTest_002</t>
-  </si>
-  <si>
-    <t>SampleTestTube003</t>
-  </si>
-  <si>
-    <t>DNASampleTest_003</t>
-  </si>
-  <si>
-    <t>SampleTestTube004</t>
-  </si>
-  <si>
-    <t>DNASampleTest_004</t>
-  </si>
-  <si>
-    <t>SampleTestTube005</t>
-  </si>
-  <si>
-    <t>DNASampleTest_005</t>
-  </si>
-  <si>
-    <t>SampleTestTube006</t>
-  </si>
-  <si>
-    <t>DNASampleTest_006</t>
-  </si>
-  <si>
-    <t>SampleTestTube007</t>
-  </si>
-  <si>
-    <t>DNASampleTest_007</t>
-  </si>
-  <si>
-    <t>SampleTestTube008</t>
-  </si>
-  <si>
-    <t>DNASampleTest_008</t>
-  </si>
-  <si>
-    <t>SampleTestTube009</t>
-  </si>
-  <si>
-    <t>DNASampleTest_009</t>
-  </si>
-  <si>
-    <t>SampleTestTube010</t>
-  </si>
-  <si>
-    <t>DNASampleTest_010</t>
-  </si>
-  <si>
-    <t>SampleTestTube011</t>
-  </si>
-  <si>
-    <t>DNASampleTest_011</t>
-  </si>
-  <si>
-    <t>SampleTestTube012</t>
-  </si>
-  <si>
-    <t>DNASampleTest_012</t>
-  </si>
-  <si>
-    <t>SampleTestTube013</t>
-  </si>
-  <si>
-    <t>DNASampleTest_013</t>
-  </si>
-  <si>
-    <t>SampleTestTube014</t>
-  </si>
-  <si>
-    <t>DNASampleTest_014</t>
-  </si>
-  <si>
-    <t>SampleTestTube015</t>
-  </si>
-  <si>
-    <t>DNASampleTest_015</t>
-  </si>
-  <si>
-    <t>SampleTestTube016</t>
-  </si>
-  <si>
-    <t>DNASampleTest_016</t>
-  </si>
-  <si>
-    <t>SampleTestTube017</t>
-  </si>
-  <si>
-    <t>DNASampleTest_017</t>
-  </si>
-  <si>
-    <t>SampleTestTube018</t>
-  </si>
-  <si>
-    <t>DNASampleTest_018</t>
-  </si>
-  <si>
-    <t>SampleTestTube019</t>
-  </si>
-  <si>
-    <t>DNASampleTest_019</t>
-  </si>
-  <si>
-    <t>SampleTestTube020</t>
-  </si>
-  <si>
-    <t>DNASampleTest_020</t>
-  </si>
-  <si>
-    <t>SampleTestTube021</t>
-  </si>
-  <si>
-    <t>DNASampleTest_021</t>
-  </si>
-  <si>
-    <t>SampleTestTube022</t>
-  </si>
-  <si>
-    <t>DNASampleTest_022</t>
-  </si>
-  <si>
-    <t>SampleTestTube023</t>
-  </si>
-  <si>
-    <t>DNASampleTest_023</t>
-  </si>
-  <si>
-    <t>SampleTestTube024</t>
-  </si>
-  <si>
-    <t>DNASampleTest_024</t>
+    <t>Extraction Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1468,17 +1330,20 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1486,27 +1351,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFBFBFBF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1525,8 +1395,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,8 +1423,14 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1748,11 +1638,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1816,6 +1749,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2031,72 +1973,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="3" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="7" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="23.75" customWidth="1"/>
-    <col min="9" max="11" width="15.75" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="28" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="29" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="AC5" s="5"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="AB6" s="5"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="AC6" s="5"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -2130,11 +2074,14 @@
       <c r="K8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -2142,17 +2089,17 @@
         <v>16</v>
       </c>
       <c r="C9" s="14">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>17</v>
@@ -2164,773 +2111,403 @@
         <v>90.23</v>
       </c>
       <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L9" s="32">
+        <v>44198</v>
+      </c>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="20">
-        <v>400</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>427</v>
-      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="15">
-        <v>200</v>
-      </c>
-      <c r="J10" s="16">
-        <v>154.25</v>
-      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L10" s="32"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="20">
-        <v>400</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>429</v>
-      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="15">
-        <v>200</v>
-      </c>
-      <c r="J11" s="16">
-        <v>69.12</v>
-      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L11" s="32"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="20">
-        <v>400</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>431</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="15">
-        <v>200</v>
-      </c>
-      <c r="J12" s="16">
-        <v>100.23</v>
-      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L12" s="32"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="20">
-        <v>400</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>433</v>
-      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="15">
-        <v>200</v>
-      </c>
-      <c r="J13" s="15">
-        <v>90.23</v>
-      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L13" s="32"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="20">
-        <v>400</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>435</v>
-      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="28"/>
-      <c r="F14" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="15">
-        <v>200</v>
-      </c>
-      <c r="J14" s="16">
-        <v>154.25</v>
-      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L14" s="32"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="20">
-        <v>400</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>437</v>
-      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="15">
-        <v>200</v>
-      </c>
-      <c r="J15" s="16">
-        <v>69.12</v>
-      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L15" s="32"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="20">
-        <v>400</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>439</v>
-      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="15">
-        <v>200</v>
-      </c>
-      <c r="J16" s="16">
-        <v>100.23</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="30"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20">
-        <v>400</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>441</v>
-      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="15">
-        <v>200</v>
-      </c>
-      <c r="J17" s="15">
-        <v>90.23</v>
-      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="32"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="20">
-        <v>400</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>443</v>
-      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="15">
-        <v>200</v>
-      </c>
-      <c r="J18" s="16">
-        <v>154.25</v>
-      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="32"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>11</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="20">
-        <v>400</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>445</v>
-      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="15">
-        <v>200</v>
-      </c>
-      <c r="J19" s="16">
-        <v>69.12</v>
-      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="32"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>12</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="20">
-        <v>400</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>447</v>
-      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="15">
-        <v>200</v>
-      </c>
-      <c r="J20" s="16">
-        <v>100.23</v>
-      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="22"/>
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="32"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>13</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="20">
-        <v>400</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>449</v>
-      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="15">
-        <v>200</v>
-      </c>
-      <c r="J21" s="15">
-        <v>90.23</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="29"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>14</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="20">
-        <v>400</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>451</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="15">
-        <v>200</v>
-      </c>
-      <c r="J22" s="16">
-        <v>154.25</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="29"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>15</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="20">
-        <v>400</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>453</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="15">
-        <v>200</v>
-      </c>
-      <c r="J23" s="16">
-        <v>69.12</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L23" s="18"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="29"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>16</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="20">
-        <v>400</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>455</v>
-      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="15">
-        <v>200</v>
-      </c>
-      <c r="J24" s="16">
-        <v>100.23</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="29"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>17</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="20">
-        <v>400</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>457</v>
-      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="15">
-        <v>200</v>
-      </c>
-      <c r="J25" s="15">
-        <v>90.23</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="29"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>18</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="20">
-        <v>400</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>459</v>
-      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="15">
-        <v>200</v>
-      </c>
-      <c r="J26" s="16">
-        <v>154.25</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>19</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="20">
-        <v>400</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>461</v>
-      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="15">
-        <v>200</v>
-      </c>
-      <c r="J27" s="16">
-        <v>69.12</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="29"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>20</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="20">
-        <v>400</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>463</v>
-      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="15">
-        <v>200</v>
-      </c>
-      <c r="J28" s="16">
-        <v>100.23</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="29"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>21</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="20">
-        <v>400</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>465</v>
-      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="15">
-        <v>200</v>
-      </c>
-      <c r="J29" s="15">
-        <v>90.23</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="29"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>22</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="20">
-        <v>400</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>467</v>
-      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" s="15">
-        <v>200</v>
-      </c>
-      <c r="J30" s="16">
-        <v>154.25</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="29"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>23</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="20">
-        <v>400</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>469</v>
-      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="28"/>
-      <c r="F31" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="15">
-        <v>200</v>
-      </c>
-      <c r="J31" s="16">
-        <v>69.12</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="29"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>24</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="20">
-        <v>400</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>471</v>
-      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="15">
-        <v>200</v>
-      </c>
-      <c r="J32" s="16">
-        <v>100.23</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>25</v>
       </c>
@@ -2944,9 +2521,10 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="32"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>26</v>
       </c>
@@ -2960,9 +2538,10 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="22"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="32"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>27</v>
       </c>
@@ -2976,9 +2555,10 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="22"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="32"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -2992,9 +2572,10 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="32"/>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>29</v>
       </c>
@@ -3008,9 +2589,10 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="22"/>
-      <c r="L37" s="18"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="32"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>30</v>
       </c>
@@ -3024,9 +2606,10 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="22"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="32"/>
+      <c r="M38" s="18"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>31</v>
       </c>
@@ -3040,9 +2623,10 @@
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="32"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>32</v>
       </c>
@@ -3056,9 +2640,10 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="32"/>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>33</v>
       </c>
@@ -3072,9 +2657,10 @@
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="32"/>
+      <c r="M41" s="18"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>34</v>
       </c>
@@ -3088,9 +2674,10 @@
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="22"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="32"/>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>35</v>
       </c>
@@ -3104,9 +2691,10 @@
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="22"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="32"/>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>36</v>
       </c>
@@ -3120,9 +2708,10 @@
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="22"/>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="32"/>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>37</v>
       </c>
@@ -3136,9 +2725,10 @@
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="22"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="32"/>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>38</v>
       </c>
@@ -3152,9 +2742,10 @@
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="22"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="32"/>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>39</v>
       </c>
@@ -3168,9 +2759,10 @@
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="22"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="32"/>
+      <c r="M47" s="18"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>40</v>
       </c>
@@ -3184,9 +2776,10 @@
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="22"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="32"/>
+      <c r="M48" s="18"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>41</v>
       </c>
@@ -3200,9 +2793,10 @@
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="22"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="32"/>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>42</v>
       </c>
@@ -3216,9 +2810,10 @@
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="22"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="32"/>
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>43</v>
       </c>
@@ -3232,9 +2827,10 @@
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="22"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="32"/>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>44</v>
       </c>
@@ -3248,9 +2844,10 @@
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" s="22"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="32"/>
+      <c r="M52" s="18"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>45</v>
       </c>
@@ -3264,9 +2861,10 @@
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
       <c r="K53" s="22"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="32"/>
+      <c r="M53" s="18"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>46</v>
       </c>
@@ -3280,9 +2878,10 @@
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="22"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L54" s="32"/>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>47</v>
       </c>
@@ -3296,9 +2895,10 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="22"/>
-      <c r="L55" s="18"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L55" s="32"/>
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>48</v>
       </c>
@@ -3312,9 +2912,10 @@
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="22"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="32"/>
+      <c r="M56" s="18"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>49</v>
       </c>
@@ -3328,9 +2929,10 @@
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="22"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="32"/>
+      <c r="M57" s="18"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>50</v>
       </c>
@@ -3344,9 +2946,10 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="22"/>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="32"/>
+      <c r="M58" s="18"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>51</v>
       </c>
@@ -3360,9 +2963,10 @@
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="22"/>
-      <c r="L59" s="18"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L59" s="32"/>
+      <c r="M59" s="18"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>52</v>
       </c>
@@ -3376,9 +2980,10 @@
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="22"/>
-      <c r="L60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L60" s="32"/>
+      <c r="M60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>53</v>
       </c>
@@ -3392,9 +2997,10 @@
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="22"/>
-      <c r="L61" s="18"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L61" s="32"/>
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>54</v>
       </c>
@@ -3408,9 +3014,10 @@
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="22"/>
-      <c r="L62" s="18"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L62" s="32"/>
+      <c r="M62" s="18"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>55</v>
       </c>
@@ -3424,9 +3031,10 @@
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="22"/>
-      <c r="L63" s="18"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L63" s="32"/>
+      <c r="M63" s="18"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>56</v>
       </c>
@@ -3440,9 +3048,10 @@
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="22"/>
-      <c r="L64" s="18"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="32"/>
+      <c r="M64" s="18"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>57</v>
       </c>
@@ -3456,9 +3065,10 @@
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="22"/>
-      <c r="L65" s="18"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L65" s="32"/>
+      <c r="M65" s="18"/>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>58</v>
       </c>
@@ -3472,9 +3082,10 @@
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="22"/>
-      <c r="L66" s="18"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="32"/>
+      <c r="M66" s="18"/>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>59</v>
       </c>
@@ -3488,9 +3099,10 @@
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
       <c r="K67" s="22"/>
-      <c r="L67" s="18"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L67" s="32"/>
+      <c r="M67" s="18"/>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>60</v>
       </c>
@@ -3504,9 +3116,10 @@
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="22"/>
-      <c r="L68" s="18"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="32"/>
+      <c r="M68" s="18"/>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>61</v>
       </c>
@@ -3520,9 +3133,10 @@
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="22"/>
-      <c r="L69" s="18"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="32"/>
+      <c r="M69" s="18"/>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>62</v>
       </c>
@@ -3536,9 +3150,10 @@
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
       <c r="K70" s="22"/>
-      <c r="L70" s="18"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="32"/>
+      <c r="M70" s="18"/>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>63</v>
       </c>
@@ -3552,9 +3167,10 @@
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="22"/>
-      <c r="L71" s="18"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="32"/>
+      <c r="M71" s="18"/>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>64</v>
       </c>
@@ -3568,9 +3184,10 @@
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="22"/>
-      <c r="L72" s="18"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L72" s="32"/>
+      <c r="M72" s="18"/>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>65</v>
       </c>
@@ -3584,9 +3201,10 @@
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
       <c r="K73" s="22"/>
-      <c r="L73" s="18"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="32"/>
+      <c r="M73" s="18"/>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>66</v>
       </c>
@@ -3600,9 +3218,10 @@
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="22"/>
-      <c r="L74" s="18"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L74" s="32"/>
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>67</v>
       </c>
@@ -3616,9 +3235,10 @@
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="22"/>
-      <c r="L75" s="18"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="32"/>
+      <c r="M75" s="18"/>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>68</v>
       </c>
@@ -3632,9 +3252,10 @@
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="22"/>
-      <c r="L76" s="18"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="32"/>
+      <c r="M76" s="18"/>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>69</v>
       </c>
@@ -3648,9 +3269,10 @@
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="22"/>
-      <c r="L77" s="18"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="32"/>
+      <c r="M77" s="18"/>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>70</v>
       </c>
@@ -3664,9 +3286,10 @@
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="22"/>
-      <c r="L78" s="18"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L78" s="32"/>
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>71</v>
       </c>
@@ -3680,9 +3303,10 @@
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="22"/>
-      <c r="L79" s="18"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L79" s="32"/>
+      <c r="M79" s="18"/>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>72</v>
       </c>
@@ -3696,9 +3320,10 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="22"/>
-      <c r="L80" s="18"/>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L80" s="32"/>
+      <c r="M80" s="18"/>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>73</v>
       </c>
@@ -3712,9 +3337,10 @@
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
       <c r="K81" s="22"/>
-      <c r="L81" s="18"/>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="32"/>
+      <c r="M81" s="18"/>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>74</v>
       </c>
@@ -3728,9 +3354,10 @@
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="22"/>
-      <c r="L82" s="18"/>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="32"/>
+      <c r="M82" s="18"/>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>75</v>
       </c>
@@ -3744,9 +3371,10 @@
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
       <c r="K83" s="22"/>
-      <c r="L83" s="18"/>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="32"/>
+      <c r="M83" s="18"/>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>76</v>
       </c>
@@ -3760,9 +3388,10 @@
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
       <c r="K84" s="22"/>
-      <c r="L84" s="18"/>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="32"/>
+      <c r="M84" s="18"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>77</v>
       </c>
@@ -3776,9 +3405,10 @@
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
       <c r="K85" s="22"/>
-      <c r="L85" s="18"/>
-    </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="32"/>
+      <c r="M85" s="18"/>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>78</v>
       </c>
@@ -3792,9 +3422,10 @@
       <c r="I86" s="16"/>
       <c r="J86" s="16"/>
       <c r="K86" s="22"/>
-      <c r="L86" s="18"/>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="32"/>
+      <c r="M86" s="18"/>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>79</v>
       </c>
@@ -3808,9 +3439,10 @@
       <c r="I87" s="16"/>
       <c r="J87" s="16"/>
       <c r="K87" s="22"/>
-      <c r="L87" s="18"/>
-    </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="32"/>
+      <c r="M87" s="18"/>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>80</v>
       </c>
@@ -3824,9 +3456,10 @@
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
       <c r="K88" s="22"/>
-      <c r="L88" s="18"/>
-    </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="32"/>
+      <c r="M88" s="18"/>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>81</v>
       </c>
@@ -3840,9 +3473,10 @@
       <c r="I89" s="16"/>
       <c r="J89" s="16"/>
       <c r="K89" s="22"/>
-      <c r="L89" s="18"/>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="32"/>
+      <c r="M89" s="18"/>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>82</v>
       </c>
@@ -3856,9 +3490,10 @@
       <c r="I90" s="16"/>
       <c r="J90" s="16"/>
       <c r="K90" s="22"/>
-      <c r="L90" s="18"/>
-    </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L90" s="32"/>
+      <c r="M90" s="18"/>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>83</v>
       </c>
@@ -3872,9 +3507,10 @@
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
       <c r="K91" s="22"/>
-      <c r="L91" s="18"/>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L91" s="32"/>
+      <c r="M91" s="18"/>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>84</v>
       </c>
@@ -3888,9 +3524,10 @@
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
       <c r="K92" s="22"/>
-      <c r="L92" s="18"/>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L92" s="32"/>
+      <c r="M92" s="18"/>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>85</v>
       </c>
@@ -3904,9 +3541,10 @@
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
       <c r="K93" s="22"/>
-      <c r="L93" s="18"/>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L93" s="32"/>
+      <c r="M93" s="18"/>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>86</v>
       </c>
@@ -3920,9 +3558,10 @@
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
       <c r="K94" s="22"/>
-      <c r="L94" s="18"/>
-    </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L94" s="32"/>
+      <c r="M94" s="18"/>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>87</v>
       </c>
@@ -3936,9 +3575,10 @@
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
       <c r="K95" s="22"/>
-      <c r="L95" s="18"/>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L95" s="32"/>
+      <c r="M95" s="18"/>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>88</v>
       </c>
@@ -3952,9 +3592,10 @@
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
       <c r="K96" s="22"/>
-      <c r="L96" s="18"/>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L96" s="32"/>
+      <c r="M96" s="18"/>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>89</v>
       </c>
@@ -3968,9 +3609,10 @@
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
       <c r="K97" s="22"/>
-      <c r="L97" s="18"/>
-    </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="32"/>
+      <c r="M97" s="18"/>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>90</v>
       </c>
@@ -3984,9 +3626,10 @@
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
       <c r="K98" s="22"/>
-      <c r="L98" s="18"/>
-    </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L98" s="32"/>
+      <c r="M98" s="18"/>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>91</v>
       </c>
@@ -4000,9 +3643,10 @@
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
       <c r="K99" s="22"/>
-      <c r="L99" s="18"/>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L99" s="32"/>
+      <c r="M99" s="18"/>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>92</v>
       </c>
@@ -4016,9 +3660,10 @@
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
       <c r="K100" s="22"/>
-      <c r="L100" s="18"/>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="32"/>
+      <c r="M100" s="18"/>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>93</v>
       </c>
@@ -4032,9 +3677,10 @@
       <c r="I101" s="16"/>
       <c r="J101" s="16"/>
       <c r="K101" s="22"/>
-      <c r="L101" s="18"/>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L101" s="32"/>
+      <c r="M101" s="18"/>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>94</v>
       </c>
@@ -4048,9 +3694,10 @@
       <c r="I102" s="16"/>
       <c r="J102" s="16"/>
       <c r="K102" s="22"/>
-      <c r="L102" s="18"/>
-    </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L102" s="32"/>
+      <c r="M102" s="18"/>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>95</v>
       </c>
@@ -4064,9 +3711,10 @@
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
       <c r="K103" s="22"/>
-      <c r="L103" s="18"/>
-    </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="32"/>
+      <c r="M103" s="18"/>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>96</v>
       </c>
@@ -4080,904 +3728,905 @@
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
       <c r="K104" s="25"/>
-      <c r="L104" s="26"/>
-    </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="L104" s="33"/>
+      <c r="M104" s="26"/>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
@@ -5013,17 +4662,17 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="26" width="9.375" customWidth="1"/>
+    <col min="1" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
@@ -5046,7 +4695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
@@ -5069,7 +4718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>27</v>
       </c>
@@ -5092,7 +4741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>31</v>
       </c>
@@ -5112,7 +4761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>35</v>
       </c>
@@ -5123,7 +4772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -5131,7 +4780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
@@ -5139,7 +4788,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
@@ -5147,7 +4796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>40</v>
       </c>
@@ -5155,7 +4804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>41</v>
       </c>
@@ -5163,7 +4812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>42</v>
       </c>
@@ -5171,7 +4820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>43</v>
       </c>
@@ -5179,7 +4828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>44</v>
       </c>
@@ -5187,7 +4836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>45</v>
       </c>
@@ -5195,7 +4844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>47</v>
       </c>
@@ -5203,7 +4852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>49</v>
       </c>
@@ -5211,7 +4860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>51</v>
       </c>
@@ -5219,7 +4868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>53</v>
       </c>
@@ -5227,7 +4876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>55</v>
       </c>
@@ -5235,7 +4884,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>57</v>
       </c>
@@ -5243,7 +4892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>59</v>
       </c>
@@ -5251,7 +4900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>61</v>
       </c>
@@ -5259,7 +4908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>63</v>
       </c>
@@ -5267,7 +4916,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>65</v>
       </c>
@@ -5275,7 +4924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>67</v>
       </c>
@@ -5283,7 +4932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>69</v>
       </c>
@@ -5291,7 +4940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>70</v>
       </c>
@@ -5299,7 +4948,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>71</v>
       </c>
@@ -5307,7 +4956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>72</v>
       </c>
@@ -5315,7 +4964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>73</v>
       </c>
@@ -5323,7 +4972,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>74</v>
       </c>
@@ -5331,7 +4980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>75</v>
       </c>
@@ -5339,7 +4988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>76</v>
       </c>
@@ -5347,7 +4996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>77</v>
       </c>
@@ -5355,7 +5004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>78</v>
       </c>
@@ -5363,7 +5012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>79</v>
       </c>
@@ -5371,7 +5020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>80</v>
       </c>
@@ -5379,7 +5028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>81</v>
       </c>
@@ -5387,7 +5036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>83</v>
       </c>
@@ -5395,7 +5044,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>85</v>
       </c>
@@ -5403,7 +5052,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>87</v>
       </c>
@@ -5411,7 +5060,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>89</v>
       </c>
@@ -5419,7 +5068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>91</v>
       </c>
@@ -5427,7 +5076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>93</v>
       </c>
@@ -5435,7 +5084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>95</v>
       </c>
@@ -5443,7 +5092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>97</v>
       </c>
@@ -5451,7 +5100,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>99</v>
       </c>
@@ -5459,7 +5108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>101</v>
       </c>
@@ -5467,7 +5116,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>103</v>
       </c>
@@ -5475,7 +5124,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>105</v>
       </c>
@@ -5483,7 +5132,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>106</v>
       </c>
@@ -5491,7 +5140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>107</v>
       </c>
@@ -5499,7 +5148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>108</v>
       </c>
@@ -5507,7 +5156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>109</v>
       </c>
@@ -5515,7 +5164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>110</v>
       </c>
@@ -5523,7 +5172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>111</v>
       </c>
@@ -5531,7 +5180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>112</v>
       </c>
@@ -5539,7 +5188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>113</v>
       </c>
@@ -5547,7 +5196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>114</v>
       </c>
@@ -5555,7 +5204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>115</v>
       </c>
@@ -5563,7 +5212,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>116</v>
       </c>
@@ -5571,7 +5220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
         <v>117</v>
       </c>
@@ -5579,7 +5228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
         <v>119</v>
       </c>
@@ -5587,7 +5236,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
         <v>121</v>
       </c>
@@ -5595,7 +5244,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>123</v>
       </c>
@@ -5603,7 +5252,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
         <v>125</v>
       </c>
@@ -5611,7 +5260,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
         <v>127</v>
       </c>
@@ -5619,7 +5268,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
         <v>129</v>
       </c>
@@ -5627,7 +5276,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
         <v>131</v>
       </c>
@@ -5635,7 +5284,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
         <v>133</v>
       </c>
@@ -5643,7 +5292,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
         <v>135</v>
       </c>
@@ -5651,7 +5300,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
         <v>137</v>
       </c>
@@ -5659,7 +5308,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
         <v>139</v>
       </c>
@@ -5667,7 +5316,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>141</v>
       </c>
@@ -5675,7 +5324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
         <v>142</v>
       </c>
@@ -5683,7 +5332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
         <v>143</v>
       </c>
@@ -5691,7 +5340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>144</v>
       </c>
@@ -5699,7 +5348,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
         <v>145</v>
       </c>
@@ -5707,7 +5356,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
         <v>146</v>
       </c>
@@ -5715,7 +5364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
         <v>147</v>
       </c>
@@ -5723,7 +5372,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
         <v>148</v>
       </c>
@@ -5731,7 +5380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
         <v>149</v>
       </c>
@@ -5739,7 +5388,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
         <v>150</v>
       </c>
@@ -5747,7 +5396,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
         <v>151</v>
       </c>
@@ -5755,7 +5404,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
         <v>152</v>
       </c>
@@ -5763,7 +5412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
         <v>153</v>
       </c>
@@ -5771,7 +5420,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
         <v>155</v>
       </c>
@@ -5779,7 +5428,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
         <v>157</v>
       </c>
@@ -5787,7 +5436,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>159</v>
       </c>
@@ -5795,7 +5444,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
         <v>161</v>
       </c>
@@ -5803,7 +5452,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>163</v>
       </c>
@@ -5811,7 +5460,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
         <v>165</v>
       </c>
@@ -5819,7 +5468,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
         <v>167</v>
       </c>
@@ -5827,7 +5476,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
         <v>169</v>
       </c>
@@ -5835,7 +5484,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
         <v>171</v>
       </c>
@@ -5843,7 +5492,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
         <v>173</v>
       </c>
@@ -5851,7 +5500,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
         <v>175</v>
       </c>
@@ -5859,2061 +5508,2061 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="21" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="21" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="21" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="21" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="21" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="21" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="21" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="21" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="21" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="21" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="21" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="21" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="21" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="21" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="21" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="21" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="21" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="21" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="21" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="21" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="21" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="21" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="21" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="21" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="21" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="21" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="21" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="21" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="21" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="21" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="21" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="21" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="21" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="21" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="21" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="21" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="21" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="21" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="21" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="21" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="21" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="21" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="21" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="21" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="21" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="21" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="21" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="21" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="21" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="21" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="21" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="21" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="21" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="21" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="21" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="21" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="21" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="21" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="21" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="21" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="21" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="21" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="21" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="21" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="21" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="21" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="21" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="21" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="21" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="21" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="21" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="21" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="21" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="21" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="21" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="21" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="21" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="21" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="21" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="21" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="21" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="21" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="21" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="21" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="21" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="21" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="21" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="21" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="21" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="21" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="21" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="21" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="21" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="21" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="21" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="21" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="21" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="21" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="21" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="21" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="21" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="21" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="21" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="21" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="21" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="21" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="21" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="21" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="21" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="21" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="21" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="21" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="21" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="21" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="21" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="21" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
